--- a/mc/dg_mc/算例.xlsx
+++ b/mc/dg_mc/算例.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="69-bus" sheetId="3" r:id="rId3"/>
-    <sheet name="119-bus" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="119-bus" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="176">
   <si>
     <t>0;</t>
   </si>
@@ -595,12 +596,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +674,27 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -777,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -886,6 +912,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16811,8 +16840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17050,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="H3">
         <v>-1</v>
@@ -19257,8 +19286,8 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="3">
-        <v>36</v>
+      <c r="N36" s="22">
+        <v>59</v>
       </c>
       <c r="O36" s="3">
         <v>4.4000000000000003E-3</v>
@@ -19283,8 +19312,8 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" s="22">
+        <v>59</v>
       </c>
       <c r="B37" s="8">
         <v>12.66</v>
@@ -19316,10 +19345,10 @@
         <v>36</v>
       </c>
       <c r="M37" s="3">
-        <v>36</v>
-      </c>
-      <c r="N37" s="3">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="N37" s="22">
+        <v>60</v>
       </c>
       <c r="O37" s="3">
         <v>6.4000000000000001E-2</v>
@@ -19344,8 +19373,8 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" s="22">
+        <v>60</v>
       </c>
       <c r="B38" s="8">
         <v>12.66</v>
@@ -19377,10 +19406,10 @@
         <v>37</v>
       </c>
       <c r="M38" s="3">
-        <v>37</v>
-      </c>
-      <c r="N38" s="3">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="N38" s="22">
+        <v>61</v>
       </c>
       <c r="O38" s="3">
         <v>0.1053</v>
@@ -19405,8 +19434,8 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" s="22">
+        <v>61</v>
       </c>
       <c r="B39" s="8">
         <v>12.66</v>
@@ -19438,10 +19467,10 @@
         <v>38</v>
       </c>
       <c r="M39" s="3">
-        <v>38</v>
-      </c>
-      <c r="N39" s="3">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="N39" s="22">
+        <v>62</v>
       </c>
       <c r="O39" s="3">
         <v>3.04E-2</v>
@@ -19466,8 +19495,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" s="22">
+        <v>62</v>
       </c>
       <c r="B40" s="8">
         <v>12.66</v>
@@ -19499,10 +19528,10 @@
         <v>39</v>
       </c>
       <c r="M40" s="3">
-        <v>39</v>
-      </c>
-      <c r="N40" s="3">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="N40" s="22">
+        <v>63</v>
       </c>
       <c r="O40" s="3">
         <v>1.8E-3</v>
@@ -19527,8 +19556,8 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" s="22">
+        <v>63</v>
       </c>
       <c r="B41" s="8">
         <v>12.66</v>
@@ -19560,10 +19589,10 @@
         <v>40</v>
       </c>
       <c r="M41" s="3">
-        <v>40</v>
-      </c>
-      <c r="N41" s="3">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="N41" s="22">
+        <v>64</v>
       </c>
       <c r="O41" s="3">
         <v>0.72829999999999995</v>
@@ -19588,8 +19617,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" s="22">
+        <v>64</v>
       </c>
       <c r="B42" s="8">
         <v>12.66</v>
@@ -19621,10 +19650,10 @@
         <v>41</v>
       </c>
       <c r="M42" s="3">
-        <v>41</v>
-      </c>
-      <c r="N42" s="3">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="N42" s="22">
+        <v>65</v>
       </c>
       <c r="O42" s="3">
         <v>0.31</v>
@@ -19649,8 +19678,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" s="22">
+        <v>65</v>
       </c>
       <c r="B43" s="8">
         <v>12.66</v>
@@ -19682,10 +19711,10 @@
         <v>42</v>
       </c>
       <c r="M43" s="3">
-        <v>42</v>
-      </c>
-      <c r="N43" s="3">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="N43" s="22">
+        <v>66</v>
       </c>
       <c r="O43" s="3">
         <v>4.1000000000000002E-2</v>
@@ -19710,8 +19739,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" s="22">
+        <v>66</v>
       </c>
       <c r="B44" s="8">
         <v>12.66</v>
@@ -19743,10 +19772,10 @@
         <v>43</v>
       </c>
       <c r="M44" s="3">
-        <v>43</v>
-      </c>
-      <c r="N44" s="3">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="N44" s="22">
+        <v>67</v>
       </c>
       <c r="O44" s="3">
         <v>9.1999999999999998E-3</v>
@@ -19771,8 +19800,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" s="22">
+        <v>67</v>
       </c>
       <c r="B45" s="8">
         <v>12.66</v>
@@ -19804,10 +19833,10 @@
         <v>44</v>
       </c>
       <c r="M45" s="3">
-        <v>44</v>
-      </c>
-      <c r="N45" s="3">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="N45" s="22">
+        <v>68</v>
       </c>
       <c r="O45" s="3">
         <v>0.1089</v>
@@ -19832,8 +19861,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" s="22">
+        <v>68</v>
       </c>
       <c r="B46" s="8">
         <v>12.66</v>
@@ -19865,10 +19894,10 @@
         <v>45</v>
       </c>
       <c r="M46" s="3">
-        <v>45</v>
-      </c>
-      <c r="N46" s="3">
-        <v>46</v>
+        <v>68</v>
+      </c>
+      <c r="N46" s="22">
+        <v>69</v>
       </c>
       <c r="O46" s="3">
         <v>8.9999999999999998E-4</v>
@@ -19893,8 +19922,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" s="22">
+        <v>69</v>
       </c>
       <c r="B47" s="8">
         <v>12.66</v>
@@ -19928,8 +19957,8 @@
       <c r="M47" s="3">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>47</v>
+      <c r="N47" s="48">
+        <v>36</v>
       </c>
       <c r="O47" s="3">
         <v>3.3999999999999998E-3</v>
@@ -19954,8 +19983,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" s="48">
+        <v>36</v>
       </c>
       <c r="B48" s="8">
         <v>12.66</v>
@@ -19987,10 +20016,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="3">
-        <v>47</v>
-      </c>
-      <c r="N48" s="3">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="N48" s="48">
+        <v>37</v>
       </c>
       <c r="O48" s="3">
         <v>8.5099999999999995E-2</v>
@@ -20015,8 +20044,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" s="48">
+        <v>37</v>
       </c>
       <c r="B49" s="8">
         <v>12.66</v>
@@ -20048,10 +20077,10 @@
         <v>48</v>
       </c>
       <c r="M49" s="3">
-        <v>48</v>
-      </c>
-      <c r="N49" s="3">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="N49" s="48">
+        <v>38</v>
       </c>
       <c r="O49" s="3">
         <v>0.2898</v>
@@ -20076,8 +20105,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" s="48">
+        <v>38</v>
       </c>
       <c r="B50" s="8">
         <v>12.66</v>
@@ -20109,10 +20138,10 @@
         <v>49</v>
       </c>
       <c r="M50" s="3">
-        <v>49</v>
-      </c>
-      <c r="N50" s="3">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="N50" s="48">
+        <v>39</v>
       </c>
       <c r="O50" s="3">
         <v>8.2199999999999995E-2</v>
@@ -20137,8 +20166,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" s="48">
+        <v>39</v>
       </c>
       <c r="B51" s="8">
         <v>12.66</v>
@@ -20172,8 +20201,8 @@
       <c r="M51" s="3">
         <v>8</v>
       </c>
-      <c r="N51" s="3">
-        <v>51</v>
+      <c r="N51" s="49">
+        <v>40</v>
       </c>
       <c r="O51" s="3">
         <v>9.2799999999999994E-2</v>
@@ -20198,8 +20227,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" s="49">
+        <v>40</v>
       </c>
       <c r="B52" s="8">
         <v>12.66</v>
@@ -20231,10 +20260,10 @@
         <v>51</v>
       </c>
       <c r="M52" s="3">
-        <v>51</v>
-      </c>
-      <c r="N52" s="3">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="N52" s="49">
+        <v>41</v>
       </c>
       <c r="O52" s="3">
         <v>0.33189999999999997</v>
@@ -20259,8 +20288,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" s="49">
+        <v>41</v>
       </c>
       <c r="B53" s="8">
         <v>12.66</v>
@@ -20294,8 +20323,8 @@
       <c r="M53" s="3">
         <v>9</v>
       </c>
-      <c r="N53" s="3">
-        <v>53</v>
+      <c r="N53" s="50">
+        <v>42</v>
       </c>
       <c r="O53" s="3">
         <v>0.17399999999999999</v>
@@ -20320,8 +20349,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" s="50">
+        <v>42</v>
       </c>
       <c r="B54" s="8">
         <v>12.66</v>
@@ -20353,10 +20382,10 @@
         <v>53</v>
       </c>
       <c r="M54" s="3">
-        <v>53</v>
-      </c>
-      <c r="N54" s="3">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="N54" s="50">
+        <v>43</v>
       </c>
       <c r="O54" s="3">
         <v>0.20300000000000001</v>
@@ -20381,8 +20410,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" s="50">
+        <v>43</v>
       </c>
       <c r="B55" s="8">
         <v>12.66</v>
@@ -20414,10 +20443,10 @@
         <v>54</v>
       </c>
       <c r="M55" s="3">
-        <v>54</v>
-      </c>
-      <c r="N55" s="3">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="N55" s="50">
+        <v>44</v>
       </c>
       <c r="O55" s="3">
         <v>0.28420000000000001</v>
@@ -20442,8 +20471,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" s="50">
+        <v>44</v>
       </c>
       <c r="B56" s="8">
         <v>12.66</v>
@@ -20475,10 +20504,10 @@
         <v>55</v>
       </c>
       <c r="M56" s="3">
-        <v>55</v>
-      </c>
-      <c r="N56" s="3">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="N56" s="50">
+        <v>45</v>
       </c>
       <c r="O56" s="3">
         <v>0.28129999999999999</v>
@@ -20503,8 +20532,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" s="50">
+        <v>45</v>
       </c>
       <c r="B57" s="8">
         <v>12.66</v>
@@ -20536,10 +20565,10 @@
         <v>56</v>
       </c>
       <c r="M57" s="3">
-        <v>56</v>
-      </c>
-      <c r="N57" s="3">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="N57" s="50">
+        <v>46</v>
       </c>
       <c r="O57" s="3">
         <v>1.59</v>
@@ -20564,8 +20593,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" s="50">
+        <v>46</v>
       </c>
       <c r="B58" s="8">
         <v>12.66</v>
@@ -20597,10 +20626,10 @@
         <v>57</v>
       </c>
       <c r="M58" s="3">
-        <v>57</v>
-      </c>
-      <c r="N58" s="3">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="N58" s="50">
+        <v>47</v>
       </c>
       <c r="O58" s="3">
         <v>0.78369999999999995</v>
@@ -20625,8 +20654,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" s="50">
+        <v>47</v>
       </c>
       <c r="B59" s="8">
         <v>12.66</v>
@@ -20658,10 +20687,10 @@
         <v>58</v>
       </c>
       <c r="M59" s="3">
-        <v>58</v>
-      </c>
-      <c r="N59" s="3">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="N59" s="50">
+        <v>48</v>
       </c>
       <c r="O59" s="3">
         <v>0.30420000000000003</v>
@@ -20686,8 +20715,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" s="50">
+        <v>48</v>
       </c>
       <c r="B60" s="8">
         <v>12.66</v>
@@ -20719,10 +20748,10 @@
         <v>59</v>
       </c>
       <c r="M60" s="3">
-        <v>59</v>
-      </c>
-      <c r="N60" s="3">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="N60" s="50">
+        <v>49</v>
       </c>
       <c r="O60" s="3">
         <v>0.3861</v>
@@ -20747,8 +20776,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" s="50">
+        <v>49</v>
       </c>
       <c r="B61" s="8">
         <v>12.66</v>
@@ -20780,10 +20809,10 @@
         <v>60</v>
       </c>
       <c r="M61" s="3">
-        <v>60</v>
-      </c>
-      <c r="N61" s="3">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="N61" s="50">
+        <v>50</v>
       </c>
       <c r="O61" s="3">
         <v>0.50749999999999995</v>
@@ -20808,8 +20837,8 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" s="50">
+        <v>50</v>
       </c>
       <c r="B62" s="8">
         <v>12.66</v>
@@ -20841,10 +20870,10 @@
         <v>61</v>
       </c>
       <c r="M62" s="3">
-        <v>61</v>
-      </c>
-      <c r="N62" s="3">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="N62" s="50">
+        <v>51</v>
       </c>
       <c r="O62" s="3">
         <v>9.74E-2</v>
@@ -20869,8 +20898,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" s="50">
+        <v>51</v>
       </c>
       <c r="B63" s="8">
         <v>12.66</v>
@@ -20902,10 +20931,10 @@
         <v>62</v>
       </c>
       <c r="M63" s="3">
-        <v>62</v>
-      </c>
-      <c r="N63" s="3">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="N63" s="50">
+        <v>52</v>
       </c>
       <c r="O63" s="3">
         <v>0.14499999999999999</v>
@@ -20930,8 +20959,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" s="50">
+        <v>52</v>
       </c>
       <c r="B64" s="8">
         <v>12.66</v>
@@ -20963,10 +20992,10 @@
         <v>63</v>
       </c>
       <c r="M64" s="3">
-        <v>63</v>
-      </c>
-      <c r="N64" s="3">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="N64" s="50">
+        <v>53</v>
       </c>
       <c r="O64" s="3">
         <v>0.71050000000000002</v>
@@ -20991,8 +21020,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" s="50">
+        <v>53</v>
       </c>
       <c r="B65" s="8">
         <v>12.66</v>
@@ -21024,10 +21053,10 @@
         <v>64</v>
       </c>
       <c r="M65" s="3">
-        <v>64</v>
-      </c>
-      <c r="N65" s="3">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="N65" s="50">
+        <v>54</v>
       </c>
       <c r="O65" s="3">
         <v>1.0409999999999999</v>
@@ -21052,8 +21081,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" s="50">
+        <v>54</v>
       </c>
       <c r="B66" s="8">
         <v>12.66</v>
@@ -21088,7 +21117,7 @@
         <v>11</v>
       </c>
       <c r="N66" s="3">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O66" s="3">
         <v>0.20119999999999999</v>
@@ -21113,8 +21142,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" s="3">
+        <v>55</v>
       </c>
       <c r="B67" s="8">
         <v>12.66</v>
@@ -21146,10 +21175,10 @@
         <v>66</v>
       </c>
       <c r="M67" s="3">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N67" s="3">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="O67" s="3">
         <v>4.7000000000000002E-3</v>
@@ -21174,8 +21203,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" s="3">
+        <v>56</v>
       </c>
       <c r="B68" s="8">
         <v>12.66</v>
@@ -21210,7 +21239,7 @@
         <v>12</v>
       </c>
       <c r="N68" s="3">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O68" s="3">
         <v>0.73939999999999995</v>
@@ -21235,8 +21264,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" s="3">
+        <v>57</v>
       </c>
       <c r="B69" s="8">
         <v>12.66</v>
@@ -21268,10 +21297,10 @@
         <v>68</v>
       </c>
       <c r="M69" s="3">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N69" s="3">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O69" s="3">
         <v>4.7000000000000002E-3</v>
@@ -21296,8 +21325,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" s="3">
+        <v>58</v>
       </c>
       <c r="B70" s="10">
         <v>12.66</v>
@@ -21341,10 +21370,10 @@
         <v>69</v>
       </c>
       <c r="M71" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N71" s="3">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="O71" s="3">
         <v>0.5</v>
@@ -21373,16 +21402,16 @@
         <v>70</v>
       </c>
       <c r="M72" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N72" s="3">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="O72" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P72" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -21405,16 +21434,16 @@
         <v>71</v>
       </c>
       <c r="M73" s="3">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N73" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -21437,16 +21466,16 @@
         <v>72</v>
       </c>
       <c r="M74" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="N74" s="3">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O74" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P74" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -21472,13 +21501,13 @@
         <v>27</v>
       </c>
       <c r="N75" s="5">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O75" s="5">
         <v>1</v>
       </c>
       <c r="P75" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="5">
         <v>0</v>
@@ -21505,9 +21534,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H100" workbookViewId="0">
+    <sheetView topLeftCell="H112" workbookViewId="0">
       <selection activeCell="M119" sqref="M100:M119"/>
     </sheetView>
   </sheetViews>
@@ -30462,11 +30506,11 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <f>V141*R141</f>
+        <f t="shared" ref="N141:N172" si="2">V141*R141</f>
         <v>-133.84</v>
       </c>
       <c r="O141">
-        <f>W141*R141</f>
+        <f t="shared" ref="O141:O172" si="3">W141*R141</f>
         <v>-101.14</v>
       </c>
       <c r="P141" s="35">
@@ -30525,11 +30569,11 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <f>V142*R142</f>
+        <f t="shared" si="2"/>
         <v>-16.213999999999999</v>
       </c>
       <c r="O142">
-        <f>W142*R142</f>
+        <f t="shared" si="3"/>
         <v>-11.292</v>
       </c>
       <c r="P142" s="37">
@@ -30588,11 +30632,11 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <f>V143*R143</f>
+        <f t="shared" si="2"/>
         <v>-34.314999999999998</v>
       </c>
       <c r="O143">
-        <f>W143*R143</f>
+        <f t="shared" si="3"/>
         <v>-21.844999999999999</v>
       </c>
       <c r="P143" s="35">
@@ -30651,11 +30695,11 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <f>V144*R144</f>
+        <f t="shared" si="2"/>
         <v>-73.016000000000005</v>
       </c>
       <c r="O144">
-        <f>W144*R144</f>
+        <f t="shared" si="3"/>
         <v>-63.601999999999997</v>
       </c>
       <c r="P144" s="37">
@@ -30714,11 +30758,11 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <f>V145*R145</f>
+        <f t="shared" si="2"/>
         <v>-144.19999999999999</v>
       </c>
       <c r="O145">
-        <f>W145*R145</f>
+        <f t="shared" si="3"/>
         <v>-68.603999999999999</v>
       </c>
       <c r="P145" s="35">
@@ -30777,11 +30821,11 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <f>V146*R146</f>
+        <f t="shared" si="2"/>
         <v>-104.47</v>
       </c>
       <c r="O146">
-        <f>W146*R146</f>
+        <f t="shared" si="3"/>
         <v>-61.725000000000001</v>
       </c>
       <c r="P146" s="37">
@@ -30840,11 +30884,11 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <f>V147*R147</f>
+        <f t="shared" si="2"/>
         <v>-28.547000000000001</v>
       </c>
       <c r="O147">
-        <f>W147*R147</f>
+        <f t="shared" si="3"/>
         <v>-11.503</v>
       </c>
       <c r="P147" s="35">
@@ -30903,11 +30947,11 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <f>V148*R148</f>
+        <f t="shared" si="2"/>
         <v>-87.56</v>
       </c>
       <c r="O148">
-        <f>W148*R148</f>
+        <f t="shared" si="3"/>
         <v>-51.073</v>
       </c>
       <c r="P148" s="37">
@@ -30966,11 +31010,11 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <f>V149*R149</f>
+        <f t="shared" si="2"/>
         <v>-198.2</v>
       </c>
       <c r="O149">
-        <f>W149*R149</f>
+        <f t="shared" si="3"/>
         <v>-106.77</v>
       </c>
       <c r="P149" s="35">
@@ -31029,11 +31073,11 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <f>V150*R150</f>
+        <f t="shared" si="2"/>
         <v>-146.80000000000001</v>
       </c>
       <c r="O150">
-        <f>W150*R150</f>
+        <f t="shared" si="3"/>
         <v>-75.989999999999995</v>
       </c>
       <c r="P150" s="37">
@@ -31092,11 +31136,11 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <f>V151*R151</f>
+        <f t="shared" si="2"/>
         <v>-26.04</v>
       </c>
       <c r="O151">
-        <f>W151*R151</f>
+        <f t="shared" si="3"/>
         <v>-18.687000000000001</v>
       </c>
       <c r="P151" s="35">
@@ -31155,11 +31199,11 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <f>V152*R152</f>
+        <f t="shared" si="2"/>
         <v>-52.1</v>
       </c>
       <c r="O152">
-        <f>W152*R152</f>
+        <f t="shared" si="3"/>
         <v>-23.22</v>
       </c>
       <c r="P152" s="37">
@@ -31218,11 +31262,11 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <f>V153*R153</f>
+        <f t="shared" si="2"/>
         <v>-141.9</v>
       </c>
       <c r="O153">
-        <f>W153*R153</f>
+        <f t="shared" si="3"/>
         <v>-117.5</v>
       </c>
       <c r="P153" s="35">
@@ -31281,11 +31325,11 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <f>V154*R154</f>
+        <f t="shared" si="2"/>
         <v>-21.87</v>
       </c>
       <c r="O154">
-        <f>W154*R154</f>
+        <f t="shared" si="3"/>
         <v>-28.79</v>
       </c>
       <c r="P154" s="37">
@@ -31344,11 +31388,11 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <f>V155*R155</f>
+        <f t="shared" si="2"/>
         <v>-33.369999999999997</v>
       </c>
       <c r="O155">
-        <f>W155*R155</f>
+        <f t="shared" si="3"/>
         <v>-26.45</v>
       </c>
       <c r="P155" s="35">
@@ -31407,11 +31451,11 @@
         <v>0</v>
       </c>
       <c r="N156">
-        <f>V156*R156</f>
+        <f t="shared" si="2"/>
         <v>-32.43</v>
       </c>
       <c r="O156">
-        <f>W156*R156</f>
+        <f t="shared" si="3"/>
         <v>-25.23</v>
       </c>
       <c r="P156" s="37">
@@ -31470,11 +31514,11 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <f>V157*R157</f>
+        <f t="shared" si="2"/>
         <v>-20.234000000000002</v>
       </c>
       <c r="O157">
-        <f>W157*R157</f>
+        <f t="shared" si="3"/>
         <v>-11.906000000000001</v>
       </c>
       <c r="P157" s="35">
@@ -31533,11 +31577,11 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <f>V158*R158</f>
+        <f t="shared" si="2"/>
         <v>-156.94</v>
       </c>
       <c r="O158">
-        <f>W158*R158</f>
+        <f t="shared" si="3"/>
         <v>-78.522999999999996</v>
       </c>
       <c r="P158" s="37">
@@ -31596,11 +31640,11 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <f>V159*R159</f>
+        <f t="shared" si="2"/>
         <v>-546.29</v>
       </c>
       <c r="O159">
-        <f>W159*R159</f>
+        <f t="shared" si="3"/>
         <v>-351.4</v>
       </c>
       <c r="P159" s="35">
@@ -31659,11 +31703,11 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <f>V160*R160</f>
+        <f t="shared" si="2"/>
         <v>-180.3</v>
       </c>
       <c r="O160">
-        <f>W160*R160</f>
+        <f t="shared" si="3"/>
         <v>-164.2</v>
       </c>
       <c r="P160" s="37">
@@ -31722,11 +31766,11 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <f>V161*R161</f>
+        <f t="shared" si="2"/>
         <v>-93.167000000000002</v>
       </c>
       <c r="O161">
-        <f>W161*R161</f>
+        <f t="shared" si="3"/>
         <v>-54.594000000000001</v>
       </c>
       <c r="P161" s="35">
@@ -31785,11 +31829,11 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <f>V162*R162</f>
+        <f t="shared" si="2"/>
         <v>-85.18</v>
       </c>
       <c r="O162">
-        <f>W162*R162</f>
+        <f t="shared" si="3"/>
         <v>-39.65</v>
       </c>
       <c r="P162" s="37">
@@ -31848,11 +31892,11 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <f>V163*R163</f>
+        <f t="shared" si="2"/>
         <v>-168.1</v>
       </c>
       <c r="O163">
-        <f>W163*R163</f>
+        <f t="shared" si="3"/>
         <v>-95.177999999999997</v>
       </c>
       <c r="P163" s="35">
@@ -31911,11 +31955,11 @@
         <v>0</v>
       </c>
       <c r="N164">
-        <f>V164*R164</f>
+        <f t="shared" si="2"/>
         <v>-125.11</v>
       </c>
       <c r="O164">
-        <f>W164*R164</f>
+        <f t="shared" si="3"/>
         <v>-150.22</v>
       </c>
       <c r="P164" s="37">
@@ -31974,11 +32018,11 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <f>V165*R165</f>
+        <f t="shared" si="2"/>
         <v>-16.03</v>
       </c>
       <c r="O165">
-        <f>W165*R165</f>
+        <f t="shared" si="3"/>
         <v>-24.62</v>
       </c>
       <c r="P165" s="35">
@@ -32037,11 +32081,11 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <f>V166*R166</f>
+        <f t="shared" si="2"/>
         <v>-26.03</v>
       </c>
       <c r="O166">
-        <f>W166*R166</f>
+        <f t="shared" si="3"/>
         <v>-24.62</v>
       </c>
       <c r="P166" s="37">
@@ -32100,11 +32144,11 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <f>V167*R167</f>
+        <f t="shared" si="2"/>
         <v>-594.55999999999995</v>
       </c>
       <c r="O167">
-        <f>W167*R167</f>
+        <f t="shared" si="3"/>
         <v>-522.62</v>
       </c>
       <c r="P167" s="35">
@@ -32163,11 +32207,11 @@
         <v>0</v>
       </c>
       <c r="N168">
-        <f>V168*R168</f>
+        <f t="shared" si="2"/>
         <v>-120.62</v>
       </c>
       <c r="O168">
-        <f>W168*R168</f>
+        <f t="shared" si="3"/>
         <v>-59.116999999999997</v>
       </c>
       <c r="P168" s="37">
@@ -32226,11 +32270,11 @@
         <v>0</v>
       </c>
       <c r="N169">
-        <f>V169*R169</f>
+        <f t="shared" si="2"/>
         <v>-102.38</v>
       </c>
       <c r="O169">
-        <f>W169*R169</f>
+        <f t="shared" si="3"/>
         <v>-99.554000000000002</v>
       </c>
       <c r="P169" s="35">
@@ -32289,11 +32333,11 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <f>V170*R170</f>
+        <f t="shared" si="2"/>
         <v>-513.4</v>
       </c>
       <c r="O170">
-        <f>W170*R170</f>
+        <f t="shared" si="3"/>
         <v>-318.5</v>
       </c>
       <c r="P170" s="37">
@@ -32352,11 +32396,11 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <f>V171*R171</f>
+        <f t="shared" si="2"/>
         <v>-475.25</v>
       </c>
       <c r="O171">
-        <f>W171*R171</f>
+        <f t="shared" si="3"/>
         <v>-456.14</v>
       </c>
       <c r="P171" s="35">
@@ -32415,11 +32459,11 @@
         <v>0</v>
       </c>
       <c r="N172">
-        <f>V172*R172</f>
+        <f t="shared" si="2"/>
         <v>-151.43</v>
       </c>
       <c r="O172">
-        <f>W172*R172</f>
+        <f t="shared" si="3"/>
         <v>-136.79</v>
       </c>
       <c r="P172" s="37">
@@ -32478,11 +32522,11 @@
         <v>0</v>
       </c>
       <c r="N173">
-        <f>V173*R173</f>
+        <f t="shared" ref="N173:N204" si="4">V173*R173</f>
         <v>-205.38</v>
       </c>
       <c r="O173">
-        <f>W173*R173</f>
+        <f t="shared" ref="O173:O204" si="5">W173*R173</f>
         <v>-83.302000000000007</v>
       </c>
       <c r="P173" s="35">
@@ -32541,11 +32585,11 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <f>V174*R174</f>
+        <f t="shared" si="4"/>
         <v>-131.6</v>
       </c>
       <c r="O174">
-        <f>W174*R174</f>
+        <f t="shared" si="5"/>
         <v>-93.081999999999994</v>
       </c>
       <c r="P174" s="37">
@@ -32604,11 +32648,11 @@
         <v>0</v>
       </c>
       <c r="N175">
-        <f>V175*R175</f>
+        <f t="shared" si="4"/>
         <v>-448.4</v>
       </c>
       <c r="O175">
-        <f>W175*R175</f>
+        <f t="shared" si="5"/>
         <v>-369.7</v>
       </c>
       <c r="P175" s="35">
@@ -32667,11 +32711,11 @@
         <v>0</v>
       </c>
       <c r="N176">
-        <f>V176*R176</f>
+        <f t="shared" si="4"/>
         <v>-440.52</v>
       </c>
       <c r="O176">
-        <f>W176*R176</f>
+        <f t="shared" si="5"/>
         <v>-321.64</v>
       </c>
       <c r="P176" s="37">
@@ -32730,11 +32774,11 @@
         <v>0</v>
       </c>
       <c r="N177">
-        <f>V177*R177</f>
+        <f t="shared" si="4"/>
         <v>-112.54</v>
       </c>
       <c r="O177">
-        <f>W177*R177</f>
+        <f t="shared" si="5"/>
         <v>-55.134</v>
       </c>
       <c r="P177" s="35">
@@ -32793,11 +32837,11 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <f>V178*R178</f>
+        <f t="shared" si="4"/>
         <v>-53.963000000000001</v>
       </c>
       <c r="O178">
-        <f>W178*R178</f>
+        <f t="shared" si="5"/>
         <v>-38.997999999999998</v>
       </c>
       <c r="P178" s="37">
@@ -32856,11 +32900,11 @@
         <v>0</v>
       </c>
       <c r="N179">
-        <f>V179*R179</f>
+        <f t="shared" si="4"/>
         <v>-393.05</v>
       </c>
       <c r="O179">
-        <f>W179*R179</f>
+        <f t="shared" si="5"/>
         <v>-342.6</v>
       </c>
       <c r="P179" s="35">
@@ -32919,11 +32963,11 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <f>V180*R180</f>
+        <f t="shared" si="4"/>
         <v>-326.74</v>
       </c>
       <c r="O180">
-        <f>W180*R180</f>
+        <f t="shared" si="5"/>
         <v>-278.56</v>
       </c>
       <c r="P180" s="37">
@@ -32982,11 +33026,11 @@
         <v>0</v>
       </c>
       <c r="N181">
-        <f>V181*R181</f>
+        <f t="shared" si="4"/>
         <v>-536.26</v>
       </c>
       <c r="O181">
-        <f>W181*R181</f>
+        <f t="shared" si="5"/>
         <v>-240.24</v>
       </c>
       <c r="P181" s="35">
@@ -33045,11 +33089,11 @@
         <v>0</v>
       </c>
       <c r="N182">
-        <f>V182*R182</f>
+        <f t="shared" si="4"/>
         <v>-76.247</v>
       </c>
       <c r="O182">
-        <f>W182*R182</f>
+        <f t="shared" si="5"/>
         <v>-66.561999999999998</v>
       </c>
       <c r="P182" s="37">
@@ -33108,11 +33152,11 @@
         <v>0</v>
       </c>
       <c r="N183">
-        <f>V183*R183</f>
+        <f t="shared" si="4"/>
         <v>-53.52</v>
       </c>
       <c r="O183">
-        <f>W183*R183</f>
+        <f t="shared" si="5"/>
         <v>-39.76</v>
       </c>
       <c r="P183" s="35">
@@ -33171,11 +33215,11 @@
         <v>0</v>
       </c>
       <c r="N184">
-        <f>V184*R184</f>
+        <f t="shared" si="4"/>
         <v>-40.328000000000003</v>
       </c>
       <c r="O184">
-        <f>W184*R184</f>
+        <f t="shared" si="5"/>
         <v>-31.963999999999999</v>
       </c>
       <c r="P184" s="37">
@@ -33234,11 +33278,11 @@
         <v>0</v>
       </c>
       <c r="N185">
-        <f>V185*R185</f>
+        <f t="shared" si="4"/>
         <v>-39.652999999999999</v>
       </c>
       <c r="O185">
-        <f>W185*R185</f>
+        <f t="shared" si="5"/>
         <v>-20.757999999999999</v>
       </c>
       <c r="P185" s="35">
@@ -33297,11 +33341,11 @@
         <v>0</v>
       </c>
       <c r="N186">
-        <f>V186*R186</f>
+        <f t="shared" si="4"/>
         <v>-66.194999999999993</v>
       </c>
       <c r="O186">
-        <f>W186*R186</f>
+        <f t="shared" si="5"/>
         <v>-42.360999999999997</v>
       </c>
       <c r="P186" s="37">
@@ -33360,11 +33404,11 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <f>V187*R187</f>
+        <f t="shared" si="4"/>
         <v>-73.903999999999996</v>
       </c>
       <c r="O187">
-        <f>W187*R187</f>
+        <f t="shared" si="5"/>
         <v>-51.652999999999999</v>
       </c>
       <c r="P187" s="35">
@@ -33423,11 +33467,11 @@
         <v>0</v>
       </c>
       <c r="N188">
-        <f>V188*R188</f>
+        <f t="shared" si="4"/>
         <v>-114.77</v>
       </c>
       <c r="O188">
-        <f>W188*R188</f>
+        <f t="shared" si="5"/>
         <v>-57.965000000000003</v>
       </c>
       <c r="P188" s="37">
@@ -33486,11 +33530,11 @@
         <v>0</v>
       </c>
       <c r="N189">
-        <f>V189*R189</f>
+        <f t="shared" si="4"/>
         <v>-918.37</v>
       </c>
       <c r="O189">
-        <f>W189*R189</f>
+        <f t="shared" si="5"/>
         <v>-1205.0999999999999</v>
       </c>
       <c r="P189" s="35">
@@ -33549,11 +33593,11 @@
         <v>0</v>
       </c>
       <c r="N190">
-        <f>V190*R190</f>
+        <f t="shared" si="4"/>
         <v>-210.3</v>
       </c>
       <c r="O190">
-        <f>W190*R190</f>
+        <f t="shared" si="5"/>
         <v>-146.66</v>
       </c>
       <c r="P190" s="37">
@@ -33612,11 +33656,11 @@
         <v>0</v>
       </c>
       <c r="N191">
-        <f>V191*R191</f>
+        <f t="shared" si="4"/>
         <v>-66.680000000000007</v>
       </c>
       <c r="O191">
-        <f>W191*R191</f>
+        <f t="shared" si="5"/>
         <v>-56.607999999999997</v>
       </c>
       <c r="P191" s="35">
@@ -33675,11 +33719,11 @@
         <v>0</v>
       </c>
       <c r="N192">
-        <f>V192*R192</f>
+        <f t="shared" si="4"/>
         <v>-42.207000000000001</v>
       </c>
       <c r="O192">
-        <f>W192*R192</f>
+        <f t="shared" si="5"/>
         <v>-40.183999999999997</v>
       </c>
       <c r="P192" s="37">
@@ -33738,11 +33782,11 @@
         <v>0</v>
       </c>
       <c r="N193">
-        <f>V193*R193</f>
+        <f t="shared" si="4"/>
         <v>-433.74</v>
       </c>
       <c r="O193">
-        <f>W193*R193</f>
+        <f t="shared" si="5"/>
         <v>-283.41000000000003</v>
       </c>
       <c r="P193" s="35">
@@ -33801,11 +33845,11 @@
         <v>0</v>
       </c>
       <c r="N194">
-        <f>V194*R194</f>
+        <f t="shared" si="4"/>
         <v>-62.1</v>
       </c>
       <c r="O194">
-        <f>W194*R194</f>
+        <f t="shared" si="5"/>
         <v>-26.86</v>
       </c>
       <c r="P194" s="37">
@@ -33864,11 +33908,11 @@
         <v>0</v>
       </c>
       <c r="N195">
-        <f>V195*R195</f>
+        <f t="shared" si="4"/>
         <v>-92.46</v>
       </c>
       <c r="O195">
-        <f>W195*R195</f>
+        <f t="shared" si="5"/>
         <v>-88.38</v>
       </c>
       <c r="P195" s="35">
@@ -33927,11 +33971,11 @@
         <v>0</v>
       </c>
       <c r="N196">
-        <f>V196*R196</f>
+        <f t="shared" si="4"/>
         <v>-85.188000000000002</v>
       </c>
       <c r="O196">
-        <f>W196*R196</f>
+        <f t="shared" si="5"/>
         <v>-55.436</v>
       </c>
       <c r="P196" s="37">
@@ -33990,11 +34034,11 @@
         <v>0</v>
       </c>
       <c r="N197">
-        <f>V197*R197</f>
+        <f t="shared" si="4"/>
         <v>-345.3</v>
       </c>
       <c r="O197">
-        <f>W197*R197</f>
+        <f t="shared" si="5"/>
         <v>-332.4</v>
       </c>
       <c r="P197" s="35">
@@ -34053,11 +34097,11 @@
         <v>0</v>
       </c>
       <c r="N198">
-        <f>V198*R198</f>
+        <f t="shared" si="4"/>
         <v>-22.5</v>
       </c>
       <c r="O198">
-        <f>W198*R198</f>
+        <f t="shared" si="5"/>
         <v>-16.829999999999998</v>
       </c>
       <c r="P198" s="37">
@@ -34116,11 +34160,11 @@
         <v>0</v>
       </c>
       <c r="N199">
-        <f>V199*R199</f>
+        <f t="shared" si="4"/>
         <v>-80.551000000000002</v>
       </c>
       <c r="O199">
-        <f>W199*R199</f>
+        <f t="shared" si="5"/>
         <v>-49.155999999999999</v>
       </c>
       <c r="P199" s="35">
@@ -34150,11 +34194,11 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <f t="shared" ref="D200:D252" si="2">H200*G200</f>
+        <f t="shared" ref="D200:D252" si="6">H200*G200</f>
         <v>-391.78</v>
       </c>
       <c r="E200">
-        <f t="shared" ref="E200:E252" si="3">I200*G200</f>
+        <f t="shared" ref="E200:E252" si="7">I200*G200</f>
         <v>-193.5</v>
       </c>
       <c r="F200" s="4" t="s">
@@ -34179,11 +34223,11 @@
         <v>0</v>
       </c>
       <c r="N200">
-        <f>V200*R200</f>
+        <f t="shared" si="4"/>
         <v>-95.86</v>
       </c>
       <c r="O200">
-        <f>W200*R200</f>
+        <f t="shared" si="5"/>
         <v>-90.757999999999996</v>
       </c>
       <c r="P200" s="37">
@@ -34213,11 +34257,11 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-27.741</v>
       </c>
       <c r="E201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-26.713000000000001</v>
       </c>
       <c r="F201" s="4" t="s">
@@ -34242,11 +34286,11 @@
         <v>0</v>
       </c>
       <c r="N201">
-        <f>V201*R201</f>
+        <f t="shared" si="4"/>
         <v>-62.92</v>
       </c>
       <c r="O201">
-        <f>W201*R201</f>
+        <f t="shared" si="5"/>
         <v>-47.7</v>
       </c>
       <c r="P201" s="35">
@@ -34276,11 +34320,11 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-52.814</v>
       </c>
       <c r="E202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-25.257000000000001</v>
       </c>
       <c r="F202" s="4" t="s">
@@ -34305,11 +34349,11 @@
         <v>0</v>
       </c>
       <c r="N202">
-        <f>V202*R202</f>
+        <f t="shared" si="4"/>
         <v>-478.8</v>
       </c>
       <c r="O202">
-        <f>W202*R202</f>
+        <f t="shared" si="5"/>
         <v>-463.74</v>
       </c>
       <c r="P202" s="37">
@@ -34339,11 +34383,11 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-66.89</v>
       </c>
       <c r="E203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-38.713000000000001</v>
       </c>
       <c r="F203" s="4" t="s">
@@ -34368,11 +34412,11 @@
         <v>0</v>
       </c>
       <c r="N203">
-        <f>V203*R203</f>
+        <f t="shared" si="4"/>
         <v>-120.94</v>
       </c>
       <c r="O203">
-        <f>W203*R203</f>
+        <f t="shared" si="5"/>
         <v>-52.006</v>
       </c>
       <c r="P203" s="35">
@@ -34402,11 +34446,11 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-467.5</v>
       </c>
       <c r="E204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-395.14</v>
       </c>
       <c r="F204" s="4" t="s">
@@ -34431,11 +34475,11 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <f>V204*R204</f>
+        <f t="shared" si="4"/>
         <v>-139.11000000000001</v>
       </c>
       <c r="O204">
-        <f>W204*R204</f>
+        <f t="shared" si="5"/>
         <v>-100.34</v>
       </c>
       <c r="P204" s="37">
@@ -34465,11 +34509,11 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-594.85</v>
       </c>
       <c r="E205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-239.74</v>
       </c>
       <c r="F205" s="4" t="s">
@@ -34494,11 +34538,11 @@
         <v>0</v>
       </c>
       <c r="N205">
-        <f>V205*R205</f>
+        <f t="shared" ref="N205:N236" si="8">V205*R205</f>
         <v>-391.78</v>
       </c>
       <c r="O205">
-        <f>W205*R205</f>
+        <f t="shared" ref="O205:O236" si="9">W205*R205</f>
         <v>-193.5</v>
       </c>
       <c r="P205" s="35">
@@ -34528,11 +34572,11 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-132.5</v>
       </c>
       <c r="E206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-84.363</v>
       </c>
       <c r="F206" s="4" t="s">
@@ -34557,11 +34601,11 @@
         <v>0</v>
       </c>
       <c r="N206">
-        <f>V206*R206</f>
+        <f t="shared" si="8"/>
         <v>-27.741</v>
       </c>
       <c r="O206">
-        <f>W206*R206</f>
+        <f t="shared" si="9"/>
         <v>-26.713000000000001</v>
       </c>
       <c r="P206" s="37">
@@ -34591,11 +34635,11 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-52.698999999999998</v>
       </c>
       <c r="E207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-22.481999999999999</v>
       </c>
       <c r="F207" s="4" t="s">
@@ -34620,11 +34664,11 @@
         <v>0</v>
       </c>
       <c r="N207">
-        <f>V207*R207</f>
+        <f t="shared" si="8"/>
         <v>-52.814</v>
       </c>
       <c r="O207">
-        <f>W207*R207</f>
+        <f t="shared" si="9"/>
         <v>-25.257000000000001</v>
       </c>
       <c r="P207" s="35">
@@ -34654,11 +34698,11 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-869.79</v>
       </c>
       <c r="E208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-614.77499999999998</v>
       </c>
       <c r="F208" s="4" t="s">
@@ -34683,11 +34727,11 @@
         <v>0</v>
       </c>
       <c r="N208">
-        <f>V208*R208</f>
+        <f t="shared" si="8"/>
         <v>-66.89</v>
       </c>
       <c r="O208">
-        <f>W208*R208</f>
+        <f t="shared" si="9"/>
         <v>-38.713000000000001</v>
       </c>
       <c r="P208" s="37">
@@ -34717,11 +34761,11 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-31.349</v>
       </c>
       <c r="E209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-29.817</v>
       </c>
       <c r="F209" s="4" t="s">
@@ -34746,11 +34790,11 @@
         <v>0</v>
       </c>
       <c r="N209">
-        <f>V209*R209</f>
+        <f t="shared" si="8"/>
         <v>-467.5</v>
       </c>
       <c r="O209">
-        <f>W209*R209</f>
+        <f t="shared" si="9"/>
         <v>-395.14</v>
       </c>
       <c r="P209" s="35">
@@ -34780,11 +34824,11 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-192.39</v>
       </c>
       <c r="E210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-122.43</v>
       </c>
       <c r="F210" s="4" t="s">
@@ -34809,11 +34853,11 @@
         <v>0</v>
       </c>
       <c r="N210">
-        <f>V210*R210</f>
+        <f t="shared" si="8"/>
         <v>-594.85</v>
       </c>
       <c r="O210">
-        <f>W210*R210</f>
+        <f t="shared" si="9"/>
         <v>-239.74</v>
       </c>
       <c r="P210" s="37">
@@ -34843,11 +34887,11 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-65.75</v>
       </c>
       <c r="E211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-45.37</v>
       </c>
       <c r="F211" s="4" t="s">
@@ -34872,11 +34916,11 @@
         <v>0</v>
       </c>
       <c r="N211">
-        <f>V211*R211</f>
+        <f t="shared" si="8"/>
         <v>-132.5</v>
       </c>
       <c r="O211">
-        <f>W211*R211</f>
+        <f t="shared" si="9"/>
         <v>-84.363</v>
       </c>
       <c r="P211" s="35">
@@ -34906,11 +34950,11 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-238.15</v>
       </c>
       <c r="E212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-223.22</v>
       </c>
       <c r="F212" s="4" t="s">
@@ -34935,11 +34979,11 @@
         <v>0</v>
       </c>
       <c r="N212">
-        <f>V212*R212</f>
+        <f t="shared" si="8"/>
         <v>-52.698999999999998</v>
       </c>
       <c r="O212">
-        <f>W212*R212</f>
+        <f t="shared" si="9"/>
         <v>-22.481999999999999</v>
       </c>
       <c r="P212" s="37">
@@ -34969,11 +35013,11 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-294.55</v>
       </c>
       <c r="E213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-162.47</v>
       </c>
       <c r="F213" s="4" t="s">
@@ -34998,11 +35042,11 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <f>V213*R213</f>
+        <f t="shared" si="8"/>
         <v>-869.79</v>
       </c>
       <c r="O213">
-        <f>W213*R213</f>
+        <f t="shared" si="9"/>
         <v>-614.77499999999998</v>
       </c>
       <c r="P213" s="35">
@@ -35032,11 +35076,11 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-485.57</v>
       </c>
       <c r="E214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-437.92</v>
       </c>
       <c r="F214" s="4" t="s">
@@ -35061,11 +35105,11 @@
         <v>0</v>
       </c>
       <c r="N214">
-        <f>V214*R214</f>
+        <f t="shared" si="8"/>
         <v>-31.349</v>
       </c>
       <c r="O214">
-        <f>W214*R214</f>
+        <f t="shared" si="9"/>
         <v>-29.817</v>
       </c>
       <c r="P214" s="37">
@@ -35095,11 +35139,11 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-243.53</v>
       </c>
       <c r="E215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-183.03</v>
       </c>
       <c r="F215" s="4" t="s">
@@ -35124,11 +35168,11 @@
         <v>0</v>
       </c>
       <c r="N215">
-        <f>V215*R215</f>
+        <f t="shared" si="8"/>
         <v>-192.39</v>
       </c>
       <c r="O215">
-        <f>W215*R215</f>
+        <f t="shared" si="9"/>
         <v>-122.43</v>
       </c>
       <c r="P215" s="35">
@@ -35158,11 +35202,11 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-243.53</v>
       </c>
       <c r="E216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-183.03</v>
       </c>
       <c r="F216" s="4" t="s">
@@ -35187,11 +35231,11 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <f>V216*R216</f>
+        <f t="shared" si="8"/>
         <v>-65.75</v>
       </c>
       <c r="O216">
-        <f>W216*R216</f>
+        <f t="shared" si="9"/>
         <v>-45.37</v>
       </c>
       <c r="P216" s="37">
@@ -35221,11 +35265,11 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-134.25</v>
       </c>
       <c r="E217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-119.29</v>
       </c>
       <c r="F217" s="4" t="s">
@@ -35250,11 +35294,11 @@
         <v>0</v>
       </c>
       <c r="N217">
-        <f>V217*R217</f>
+        <f t="shared" si="8"/>
         <v>-238.15</v>
       </c>
       <c r="O217">
-        <f>W217*R217</f>
+        <f t="shared" si="9"/>
         <v>-223.22</v>
       </c>
       <c r="P217" s="35">
@@ -35284,11 +35328,11 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-22.71</v>
       </c>
       <c r="E218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-27.96</v>
       </c>
       <c r="F218" s="4" t="s">
@@ -35313,11 +35357,11 @@
         <v>0</v>
       </c>
       <c r="N218">
-        <f>V218*R218</f>
+        <f t="shared" si="8"/>
         <v>-294.55</v>
       </c>
       <c r="O218">
-        <f>W218*R218</f>
+        <f t="shared" si="9"/>
         <v>-162.47</v>
       </c>
       <c r="P218" s="37">
@@ -35347,11 +35391,11 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-49.512999999999998</v>
       </c>
       <c r="E219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-26.515000000000001</v>
       </c>
       <c r="F219" s="4" t="s">
@@ -35376,11 +35420,11 @@
         <v>0</v>
       </c>
       <c r="N219">
-        <f>V219*R219</f>
+        <f t="shared" si="8"/>
         <v>-485.57</v>
       </c>
       <c r="O219">
-        <f>W219*R219</f>
+        <f t="shared" si="9"/>
         <v>-437.92</v>
       </c>
       <c r="P219" s="35">
@@ -35410,11 +35454,11 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-383.78</v>
       </c>
       <c r="E220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-257.16000000000003</v>
       </c>
       <c r="F220" s="4" t="s">
@@ -35439,11 +35483,11 @@
         <v>0</v>
       </c>
       <c r="N220">
-        <f>V220*R220</f>
+        <f t="shared" si="8"/>
         <v>-243.53</v>
       </c>
       <c r="O220">
-        <f>W220*R220</f>
+        <f t="shared" si="9"/>
         <v>-183.03</v>
       </c>
       <c r="P220" s="37">
@@ -35473,11 +35517,11 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-49.64</v>
       </c>
       <c r="E221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-20.6</v>
       </c>
       <c r="F221" s="4" t="s">
@@ -35502,11 +35546,11 @@
         <v>0</v>
       </c>
       <c r="N221">
-        <f>V221*R221</f>
+        <f t="shared" si="8"/>
         <v>-243.53</v>
       </c>
       <c r="O221">
-        <f>W221*R221</f>
+        <f t="shared" si="9"/>
         <v>-183.03</v>
       </c>
       <c r="P221" s="35">
@@ -35536,11 +35580,11 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-22.472999999999999</v>
       </c>
       <c r="E222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-11.805999999999999</v>
       </c>
       <c r="F222" s="4" t="s">
@@ -35565,11 +35609,11 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <f>V222*R222</f>
+        <f t="shared" si="8"/>
         <v>-134.25</v>
       </c>
       <c r="O222">
-        <f>W222*R222</f>
+        <f t="shared" si="9"/>
         <v>-119.29</v>
       </c>
       <c r="P222" s="37">
@@ -35599,11 +35643,11 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-62.93</v>
       </c>
       <c r="E223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-42.96</v>
       </c>
       <c r="F223" s="4" t="s">
@@ -35628,11 +35672,11 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <f>V223*R223</f>
+        <f t="shared" si="8"/>
         <v>-22.71</v>
       </c>
       <c r="O223">
-        <f>W223*R223</f>
+        <f t="shared" si="9"/>
         <v>-27.96</v>
       </c>
       <c r="P223" s="35">
@@ -35662,11 +35706,11 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-30.67</v>
       </c>
       <c r="E224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-34.93</v>
       </c>
       <c r="F224" s="4" t="s">
@@ -35691,11 +35735,11 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <f>V224*R224</f>
+        <f t="shared" si="8"/>
         <v>-49.512999999999998</v>
       </c>
       <c r="O224">
-        <f>W224*R224</f>
+        <f t="shared" si="9"/>
         <v>-26.515000000000001</v>
       </c>
       <c r="P224" s="37">
@@ -35725,11 +35769,11 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-62.53</v>
       </c>
       <c r="E225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-66.790000000000006</v>
       </c>
       <c r="F225" s="4" t="s">
@@ -35754,11 +35798,11 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <f>V225*R225</f>
+        <f t="shared" si="8"/>
         <v>-383.78</v>
       </c>
       <c r="O225">
-        <f>W225*R225</f>
+        <f t="shared" si="9"/>
         <v>-257.16000000000003</v>
       </c>
       <c r="P225" s="35">
@@ -35788,11 +35832,11 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-114.57</v>
       </c>
       <c r="E226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-81.748000000000005</v>
       </c>
       <c r="F226" s="4" t="s">
@@ -35817,11 +35861,11 @@
         <v>0</v>
       </c>
       <c r="N226">
-        <f>V226*R226</f>
+        <f t="shared" si="8"/>
         <v>-49.64</v>
       </c>
       <c r="O226">
-        <f>W226*R226</f>
+        <f t="shared" si="9"/>
         <v>-20.6</v>
       </c>
       <c r="P226" s="37">
@@ -35851,11 +35895,11 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-81.292000000000002</v>
       </c>
       <c r="E227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-66.525999999999996</v>
       </c>
       <c r="F227" s="4" t="s">
@@ -35880,11 +35924,11 @@
         <v>0</v>
       </c>
       <c r="N227">
-        <f>V227*R227</f>
+        <f t="shared" si="8"/>
         <v>-22.472999999999999</v>
       </c>
       <c r="O227">
-        <f>W227*R227</f>
+        <f t="shared" si="9"/>
         <v>-11.805999999999999</v>
       </c>
       <c r="P227" s="35">
@@ -35914,11 +35958,11 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-31.733000000000001</v>
       </c>
       <c r="E228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-15.96</v>
       </c>
       <c r="F228" s="4" t="s">
@@ -35943,11 +35987,11 @@
         <v>0</v>
       </c>
       <c r="N228">
-        <f>V228*R228</f>
+        <f t="shared" si="8"/>
         <v>-62.93</v>
       </c>
       <c r="O228">
-        <f>W228*R228</f>
+        <f t="shared" si="9"/>
         <v>-42.96</v>
       </c>
       <c r="P228" s="37">
@@ -35977,11 +36021,11 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.32</v>
       </c>
       <c r="E229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-60.48</v>
       </c>
       <c r="F229" s="4" t="s">
@@ -36006,11 +36050,11 @@
         <v>0</v>
       </c>
       <c r="N229">
-        <f>V229*R229</f>
+        <f t="shared" si="8"/>
         <v>-30.67</v>
       </c>
       <c r="O229">
-        <f>W229*R229</f>
+        <f t="shared" si="9"/>
         <v>-34.93</v>
       </c>
       <c r="P229" s="35">
@@ -36040,11 +36084,11 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-531.28</v>
       </c>
       <c r="E230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-224.85</v>
       </c>
       <c r="F230" s="4" t="s">
@@ -36069,11 +36113,11 @@
         <v>0</v>
       </c>
       <c r="N230">
-        <f>V230*R230</f>
+        <f t="shared" si="8"/>
         <v>-62.53</v>
       </c>
       <c r="O230">
-        <f>W230*R230</f>
+        <f t="shared" si="9"/>
         <v>-66.790000000000006</v>
       </c>
       <c r="P230" s="37">
@@ -36103,11 +36147,11 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-507.03</v>
       </c>
       <c r="E231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-367.42</v>
       </c>
       <c r="F231" s="4" t="s">
@@ -36132,11 +36176,11 @@
         <v>0</v>
       </c>
       <c r="N231">
-        <f>V231*R231</f>
+        <f t="shared" si="8"/>
         <v>-114.57</v>
       </c>
       <c r="O231">
-        <f>W231*R231</f>
+        <f t="shared" si="9"/>
         <v>-81.748000000000005</v>
       </c>
       <c r="P231" s="35">
@@ -36166,11 +36210,11 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-26.39</v>
       </c>
       <c r="E232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-11.7</v>
       </c>
       <c r="F232" s="4" t="s">
@@ -36195,11 +36239,11 @@
         <v>0</v>
       </c>
       <c r="N232">
-        <f>V232*R232</f>
+        <f t="shared" si="8"/>
         <v>-81.292000000000002</v>
       </c>
       <c r="O232">
-        <f>W232*R232</f>
+        <f t="shared" si="9"/>
         <v>-66.525999999999996</v>
       </c>
       <c r="P232" s="37">
@@ -36229,11 +36273,11 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-45.99</v>
       </c>
       <c r="E233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-30.391999999999999</v>
       </c>
       <c r="F233" s="4" t="s">
@@ -36258,11 +36302,11 @@
         <v>0</v>
       </c>
       <c r="N233">
-        <f>V233*R233</f>
+        <f t="shared" si="8"/>
         <v>-31.733000000000001</v>
       </c>
       <c r="O233">
-        <f>W233*R233</f>
+        <f t="shared" si="9"/>
         <v>-15.96</v>
       </c>
       <c r="P233" s="35">
@@ -36292,11 +36336,11 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-100.66</v>
       </c>
       <c r="E234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-47.572000000000003</v>
       </c>
       <c r="F234" s="4" t="s">
@@ -36321,11 +36365,11 @@
         <v>0</v>
       </c>
       <c r="N234">
-        <f>V234*R234</f>
+        <f t="shared" si="8"/>
         <v>-33.32</v>
       </c>
       <c r="O234">
-        <f>W234*R234</f>
+        <f t="shared" si="9"/>
         <v>-60.48</v>
       </c>
       <c r="P234" s="37">
@@ -36355,11 +36399,11 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-456.48</v>
       </c>
       <c r="E235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-350.3</v>
       </c>
       <c r="F235" s="4" t="s">
@@ -36384,11 +36428,11 @@
         <v>0</v>
       </c>
       <c r="N235">
-        <f>V235*R235</f>
+        <f t="shared" si="8"/>
         <v>-531.28</v>
       </c>
       <c r="O235">
-        <f>W235*R235</f>
+        <f t="shared" si="9"/>
         <v>-224.85</v>
       </c>
       <c r="P235" s="35">
@@ -36418,11 +36462,11 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-522.55999999999995</v>
       </c>
       <c r="E236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-449.29</v>
       </c>
       <c r="F236" s="4" t="s">
@@ -36447,11 +36491,11 @@
         <v>0</v>
       </c>
       <c r="N236">
-        <f>V236*R236</f>
+        <f t="shared" si="8"/>
         <v>-507.03</v>
       </c>
       <c r="O236">
-        <f>W236*R236</f>
+        <f t="shared" si="9"/>
         <v>-367.42</v>
       </c>
       <c r="P236" s="37">
@@ -36481,11 +36525,11 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-408.43</v>
       </c>
       <c r="E237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-168.46</v>
       </c>
       <c r="F237" s="4" t="s">
@@ -36510,11 +36554,11 @@
         <v>0</v>
       </c>
       <c r="N237">
-        <f>V237*R237</f>
+        <f t="shared" ref="N237:N257" si="10">V237*R237</f>
         <v>-26.39</v>
       </c>
       <c r="O237">
-        <f>W237*R237</f>
+        <f t="shared" ref="O237:O257" si="11">W237*R237</f>
         <v>-11.7</v>
       </c>
       <c r="P237" s="35">
@@ -36544,11 +36588,11 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-141.47999999999999</v>
       </c>
       <c r="E238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-134.25</v>
       </c>
       <c r="F238" s="4" t="s">
@@ -36573,11 +36617,11 @@
         <v>0</v>
       </c>
       <c r="N238">
-        <f>V238*R238</f>
+        <f t="shared" si="10"/>
         <v>-45.99</v>
       </c>
       <c r="O238">
-        <f>W238*R238</f>
+        <f t="shared" si="11"/>
         <v>-30.391999999999999</v>
       </c>
       <c r="P238" s="37">
@@ -36607,11 +36651,11 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-104.43</v>
       </c>
       <c r="E239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-66.024000000000001</v>
       </c>
       <c r="F239" s="4" t="s">
@@ -36636,11 +36680,11 @@
         <v>0</v>
       </c>
       <c r="N239">
-        <f>V239*R239</f>
+        <f t="shared" si="10"/>
         <v>-100.66</v>
       </c>
       <c r="O239">
-        <f>W239*R239</f>
+        <f t="shared" si="11"/>
         <v>-47.572000000000003</v>
       </c>
       <c r="P239" s="35">
@@ -36670,11 +36714,11 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-96.793000000000006</v>
       </c>
       <c r="E240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-83.647000000000006</v>
       </c>
       <c r="F240" s="4" t="s">
@@ -36699,11 +36743,11 @@
         <v>0</v>
       </c>
       <c r="N240">
-        <f>V240*R240</f>
+        <f t="shared" si="10"/>
         <v>-456.48</v>
       </c>
       <c r="O240">
-        <f>W240*R240</f>
+        <f t="shared" si="11"/>
         <v>-350.3</v>
       </c>
       <c r="P240" s="37">
@@ -36733,11 +36777,11 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-493.92</v>
       </c>
       <c r="E241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-419.34</v>
       </c>
       <c r="F241" s="4" t="s">
@@ -36762,11 +36806,11 @@
         <v>0</v>
       </c>
       <c r="N241">
-        <f>V241*R241</f>
+        <f t="shared" si="10"/>
         <v>-522.55999999999995</v>
       </c>
       <c r="O241">
-        <f>W241*R241</f>
+        <f t="shared" si="11"/>
         <v>-449.29</v>
       </c>
       <c r="P241" s="35">
@@ -36796,11 +36840,11 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-225.38</v>
       </c>
       <c r="E242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-135.88</v>
       </c>
       <c r="F242" s="4" t="s">
@@ -36825,11 +36869,11 @@
         <v>0</v>
       </c>
       <c r="N242">
-        <f>V242*R242</f>
+        <f t="shared" si="10"/>
         <v>-408.43</v>
       </c>
       <c r="O242">
-        <f>W242*R242</f>
+        <f t="shared" si="11"/>
         <v>-168.46</v>
       </c>
       <c r="P242" s="37">
@@ -36859,11 +36903,11 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-509.21</v>
       </c>
       <c r="E243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-387.21</v>
       </c>
       <c r="F243" s="4" t="s">
@@ -36888,11 +36932,11 @@
         <v>0</v>
       </c>
       <c r="N243">
-        <f>V243*R243</f>
+        <f t="shared" si="10"/>
         <v>-141.47999999999999</v>
       </c>
       <c r="O243">
-        <f>W243*R243</f>
+        <f t="shared" si="11"/>
         <v>-134.25</v>
       </c>
       <c r="P243" s="35">
@@ -36922,11 +36966,11 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-188.5</v>
       </c>
       <c r="E244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-173.46</v>
       </c>
       <c r="F244" s="4" t="s">
@@ -36951,11 +36995,11 @@
         <v>0</v>
       </c>
       <c r="N244">
-        <f>V244*R244</f>
+        <f t="shared" si="10"/>
         <v>-104.43</v>
       </c>
       <c r="O244">
-        <f>W244*R244</f>
+        <f t="shared" si="11"/>
         <v>-66.024000000000001</v>
       </c>
       <c r="P244" s="37">
@@ -36985,11 +37029,11 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-918.03</v>
       </c>
       <c r="E245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-898.55</v>
       </c>
       <c r="F245" s="4" t="s">
@@ -37014,11 +37058,11 @@
         <v>0</v>
       </c>
       <c r="N245">
-        <f>V245*R245</f>
+        <f t="shared" si="10"/>
         <v>-96.793000000000006</v>
       </c>
       <c r="O245">
-        <f>W245*R245</f>
+        <f t="shared" si="11"/>
         <v>-83.647000000000006</v>
       </c>
       <c r="P245" s="35">
@@ -37048,11 +37092,11 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-305.08</v>
       </c>
       <c r="E246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-215.37</v>
       </c>
       <c r="F246" s="4" t="s">
@@ -37077,11 +37121,11 @@
         <v>0</v>
       </c>
       <c r="N246">
-        <f>V246*R246</f>
+        <f t="shared" si="10"/>
         <v>-493.92</v>
       </c>
       <c r="O246">
-        <f>W246*R246</f>
+        <f t="shared" si="11"/>
         <v>-419.34</v>
       </c>
       <c r="P246" s="37">
@@ -37111,11 +37155,11 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-54.38</v>
       </c>
       <c r="E247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-40.97</v>
       </c>
       <c r="F247" s="4" t="s">
@@ -37140,11 +37184,11 @@
         <v>0</v>
       </c>
       <c r="N247">
-        <f>V247*R247</f>
+        <f t="shared" si="10"/>
         <v>-225.38</v>
       </c>
       <c r="O247">
-        <f>W247*R247</f>
+        <f t="shared" si="11"/>
         <v>-135.88</v>
       </c>
       <c r="P247" s="35">
@@ -37174,11 +37218,11 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-211.14</v>
       </c>
       <c r="E248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-192.9</v>
       </c>
       <c r="F248" s="4" t="s">
@@ -37203,11 +37247,11 @@
         <v>0</v>
       </c>
       <c r="N248">
-        <f>V248*R248</f>
+        <f t="shared" si="10"/>
         <v>-509.21</v>
       </c>
       <c r="O248">
-        <f>W248*R248</f>
+        <f t="shared" si="11"/>
         <v>-387.21</v>
       </c>
       <c r="P248" s="37">
@@ -37237,11 +37281,11 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-67.009</v>
       </c>
       <c r="E249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-53.335999999999999</v>
       </c>
       <c r="F249" s="4" t="s">
@@ -37266,11 +37310,11 @@
         <v>0</v>
       </c>
       <c r="N249">
-        <f>V249*R249</f>
+        <f t="shared" si="10"/>
         <v>-188.5</v>
       </c>
       <c r="O249">
-        <f>W249*R249</f>
+        <f t="shared" si="11"/>
         <v>-173.46</v>
       </c>
       <c r="P249" s="35">
@@ -37300,11 +37344,11 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-162.07</v>
       </c>
       <c r="E250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-90.320999999999998</v>
       </c>
       <c r="F250" s="4" t="s">
@@ -37329,11 +37373,11 @@
         <v>0</v>
       </c>
       <c r="N250">
-        <f>V250*R250</f>
+        <f t="shared" si="10"/>
         <v>-918.03</v>
       </c>
       <c r="O250">
-        <f>W250*R250</f>
+        <f t="shared" si="11"/>
         <v>-898.55</v>
       </c>
       <c r="P250" s="37">
@@ -37363,11 +37407,11 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-48.784999999999997</v>
       </c>
       <c r="E251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-29.155999999999999</v>
       </c>
       <c r="F251" s="4" t="s">
@@ -37392,11 +37436,11 @@
         <v>0</v>
       </c>
       <c r="N251">
-        <f>V251*R251</f>
+        <f t="shared" si="10"/>
         <v>-305.08</v>
       </c>
       <c r="O251">
-        <f>W251*R251</f>
+        <f t="shared" si="11"/>
         <v>-215.37</v>
       </c>
       <c r="P251" s="35">
@@ -37426,11 +37470,11 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.9</v>
       </c>
       <c r="E252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-18.98</v>
       </c>
       <c r="F252" s="4" t="s">
@@ -37455,11 +37499,11 @@
         <v>0</v>
       </c>
       <c r="N252">
-        <f>V252*R252</f>
+        <f t="shared" si="10"/>
         <v>-54.38</v>
       </c>
       <c r="O252">
-        <f>W252*R252</f>
+        <f t="shared" si="11"/>
         <v>-40.97</v>
       </c>
       <c r="P252" s="37">
@@ -37489,11 +37533,11 @@
         <v>0</v>
       </c>
       <c r="N253">
-        <f>V253*R253</f>
+        <f t="shared" si="10"/>
         <v>-211.14</v>
       </c>
       <c r="O253">
-        <f>W253*R253</f>
+        <f t="shared" si="11"/>
         <v>-192.9</v>
       </c>
       <c r="P253" s="35">
@@ -37523,11 +37567,11 @@
         <v>0</v>
       </c>
       <c r="N254">
-        <f>V254*R254</f>
+        <f t="shared" si="10"/>
         <v>-67.009</v>
       </c>
       <c r="O254">
-        <f>W254*R254</f>
+        <f t="shared" si="11"/>
         <v>-53.335999999999999</v>
       </c>
       <c r="P254" s="37">
@@ -37557,11 +37601,11 @@
         <v>0</v>
       </c>
       <c r="N255">
-        <f>V255*R255</f>
+        <f t="shared" si="10"/>
         <v>-162.07</v>
       </c>
       <c r="O255">
-        <f>W255*R255</f>
+        <f t="shared" si="11"/>
         <v>-90.320999999999998</v>
       </c>
       <c r="P255" s="35">
@@ -37591,11 +37635,11 @@
         <v>0</v>
       </c>
       <c r="N256">
-        <f>V256*R256</f>
+        <f t="shared" si="10"/>
         <v>-48.784999999999997</v>
       </c>
       <c r="O256">
-        <f>W256*R256</f>
+        <f t="shared" si="11"/>
         <v>-29.155999999999999</v>
       </c>
       <c r="P256" s="37">
@@ -37625,11 +37669,11 @@
         <v>0</v>
       </c>
       <c r="N257">
-        <f>V257*R257</f>
+        <f t="shared" si="10"/>
         <v>-33.9</v>
       </c>
       <c r="O257">
-        <f>W257*R257</f>
+        <f t="shared" si="11"/>
         <v>-18.98</v>
       </c>
       <c r="P257" s="40">
